--- a/medicine/Enfance/Suzy_Lee/Suzy_Lee.xlsx
+++ b/medicine/Enfance/Suzy_Lee/Suzy_Lee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suzy Lee, née le 9 février 1974 à Séoul, est une artiste, illustratrice et auteure de littérature jeunesse sud-coréenne. Elle est lauréate en 2022 du prestigieux prix international, le Prix Hans-Christian-Andersen, dans la catégorie Illustration.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzy Lee étudie les arts appliqués à l'université nationale de Séoul (Seoul National University)[1],[2]. Elle suit ensuite des cours au Camberwell College of Arts de Londres (Grande-Bretagne)[1],[2].
-Elle a obtenu de nombreux prix, dont le prestigieux prix international, le Prix Hans-Christian-Andersen, dans la catégorie Illustration, en 2022[2], prix dont elle était finaliste en 2016[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzy Lee étudie les arts appliqués à l'université nationale de Séoul (Seoul National University),. Elle suit ensuite des cours au Camberwell College of Arts de Londres (Grande-Bretagne),.
+Elle a obtenu de nombreux prix, dont le prestigieux prix international, le Prix Hans-Christian-Andersen, dans la catégorie Illustration, en 2022, prix dont elle était finaliste en 2016.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Ouvrages traduits en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Revanche des lapins, Suzy Lee, La Joie de lire, 2003
 L'Oiseau noir ( (en) The black bird ), Suzy Lee, Lirabelle, 2007
@@ -582,11 +598,13 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020 : (international) « Honour List »[3] de l' IBBY pour (en) River
-2022 : Prix Hans-Christian-Andersen catégorie Illustration[2]
-2022 :  "Mention" Prix BolognaRagazzi, catégorie Fiction[4], Foire du livre de jeunesse de Bologne  pour Summer</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020 : (international) « Honour List » de l' IBBY pour (en) River
+2022 : Prix Hans-Christian-Andersen catégorie Illustration
+2022 :  "Mention" Prix BolognaRagazzi, catégorie Fiction, Foire du livre de jeunesse de Bologne  pour Summer</t>
         </is>
       </c>
     </row>
